--- a/chapter1/iris_data.xlsx
+++ b/chapter1/iris_data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Documents\GitHub\Extending-Excel-with-Python-and-R\chapter1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD6E082-38A0-45FE-9B2C-B150BD233824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setosa" sheetId="1" r:id="rId1"/>
@@ -12,13 +18,42 @@
     <sheet name="virginica" sheetId="3" r:id="rId3"/>
     <sheet name="iris" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="8">
+  <si>
+    <t>sepal_length</t>
+  </si>
+  <si>
+    <t>sepal_width</t>
+  </si>
+  <si>
+    <t>petal_length</t>
+  </si>
+  <si>
+    <t>petal_width</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>setosa</t>
+  </si>
+  <si>
+    <t>versicolor</t>
+  </si>
+  <si>
+    <t>virginica</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,13 +101,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -110,7 +153,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -144,6 +187,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -178,9 +222,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -353,43 +398,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>sepal_length</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>sepal_width</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>petal_length</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>petal_width</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>species</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B2">
         <v>3.5</v>
@@ -400,15 +435,13 @@
       <c r="D2">
         <v>0.2</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -419,13 +452,11 @@
       <c r="D3">
         <v>0.2</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4.7</v>
       </c>
@@ -438,15 +469,13 @@
       <c r="D4">
         <v>0.2</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B5">
         <v>3.1</v>
@@ -457,13 +486,11 @@
       <c r="D5">
         <v>0.2</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -476,13 +503,11 @@
       <c r="D6">
         <v>0.2</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5.4</v>
       </c>
@@ -495,15 +520,13 @@
       <c r="D7">
         <v>0.4</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B8">
         <v>3.4</v>
@@ -514,13 +537,11 @@
       <c r="D8">
         <v>0.3</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -533,15 +554,13 @@
       <c r="D9">
         <v>0.2</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B10">
         <v>2.9</v>
@@ -552,15 +571,13 @@
       <c r="D10">
         <v>0.2</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B11">
         <v>3.1</v>
@@ -571,13 +588,11 @@
       <c r="D11">
         <v>0.1</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5.4</v>
       </c>
@@ -590,13 +605,11 @@
       <c r="D12">
         <v>0.2</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4.8</v>
       </c>
@@ -609,13 +622,11 @@
       <c r="D13">
         <v>0.2</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4.8</v>
       </c>
@@ -628,13 +639,11 @@
       <c r="D14">
         <v>0.1</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4.3</v>
       </c>
@@ -642,18 +651,16 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D15">
         <v>0.1</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5.8</v>
       </c>
@@ -666,18 +673,16 @@
       <c r="D16">
         <v>0.2</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5.7</v>
       </c>
       <c r="B17">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C17">
         <v>1.5</v>
@@ -685,13 +690,11 @@
       <c r="D17">
         <v>0.4</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5.4</v>
       </c>
@@ -704,15 +707,13 @@
       <c r="D18">
         <v>0.4</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B19">
         <v>3.5</v>
@@ -723,13 +724,11 @@
       <c r="D19">
         <v>0.3</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5.7</v>
       </c>
@@ -742,15 +741,13 @@
       <c r="D20">
         <v>0.3</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B21">
         <v>3.8</v>
@@ -761,13 +758,11 @@
       <c r="D21">
         <v>0.3</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>5.4</v>
       </c>
@@ -780,15 +775,13 @@
       <c r="D22">
         <v>0.2</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B23">
         <v>3.7</v>
@@ -799,15 +792,13 @@
       <c r="D23">
         <v>0.4</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B24">
         <v>3.6</v>
@@ -818,15 +809,13 @@
       <c r="D24">
         <v>0.2</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B25">
         <v>3.3</v>
@@ -837,13 +826,11 @@
       <c r="D25">
         <v>0.5</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>4.8</v>
       </c>
@@ -856,13 +843,11 @@
       <c r="D26">
         <v>0.2</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>5</v>
       </c>
@@ -875,13 +860,11 @@
       <c r="D27">
         <v>0.2</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5</v>
       </c>
@@ -894,13 +877,11 @@
       <c r="D28">
         <v>0.4</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>5.2</v>
       </c>
@@ -913,13 +894,11 @@
       <c r="D29">
         <v>0.2</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5.2</v>
       </c>
@@ -932,13 +911,11 @@
       <c r="D30">
         <v>0.2</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4.7</v>
       </c>
@@ -951,13 +928,11 @@
       <c r="D31">
         <v>0.2</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
+      <c r="E31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4.8</v>
       </c>
@@ -970,13 +945,11 @@
       <c r="D32">
         <v>0.2</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>5.4</v>
       </c>
@@ -989,18 +962,16 @@
       <c r="D33">
         <v>0.4</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
+      <c r="E33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>5.2</v>
       </c>
       <c r="B34">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C34">
         <v>1.5</v>
@@ -1008,13 +979,11 @@
       <c r="D34">
         <v>0.1</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
+      <c r="E34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>5.5</v>
       </c>
@@ -1027,15 +996,13 @@
       <c r="D35">
         <v>0.2</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
+      <c r="E35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B36">
         <v>3.1</v>
@@ -1046,13 +1013,11 @@
       <c r="D36">
         <v>0.2</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
+      <c r="E36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>5</v>
       </c>
@@ -1065,13 +1030,11 @@
       <c r="D37">
         <v>0.2</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
+      <c r="E37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>5.5</v>
       </c>
@@ -1084,15 +1047,13 @@
       <c r="D38">
         <v>0.2</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
+      <c r="E38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B39">
         <v>3.6</v>
@@ -1103,15 +1064,13 @@
       <c r="D39">
         <v>0.1</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
+      <c r="E39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -1122,15 +1081,13 @@
       <c r="D40">
         <v>0.2</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
+      <c r="E40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B41">
         <v>3.4</v>
@@ -1141,13 +1098,11 @@
       <c r="D41">
         <v>0.2</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
+      <c r="E41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1160,18 +1115,16 @@
       <c r="D42">
         <v>0.3</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
+      <c r="E42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>4.5</v>
       </c>
       <c r="B43">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C43">
         <v>1.3</v>
@@ -1179,15 +1132,13 @@
       <c r="D43">
         <v>0.3</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
+      <c r="E43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B44">
         <v>3.2</v>
@@ -1198,13 +1149,11 @@
       <c r="D44">
         <v>0.2</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
+      <c r="E44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>5</v>
       </c>
@@ -1217,15 +1166,13 @@
       <c r="D45">
         <v>0.6</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
+      <c r="E45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B46">
         <v>3.8</v>
@@ -1236,13 +1183,11 @@
       <c r="D46">
         <v>0.4</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
+      <c r="E46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4.8</v>
       </c>
@@ -1255,15 +1200,13 @@
       <c r="D47">
         <v>0.3</v>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
+      <c r="E47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B48">
         <v>3.8</v>
@@ -1274,15 +1217,13 @@
       <c r="D48">
         <v>0.2</v>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
+      <c r="E48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B49">
         <v>3.2</v>
@@ -1293,13 +1234,11 @@
       <c r="D49">
         <v>0.2</v>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
+      <c r="E49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>5.3</v>
       </c>
@@ -1312,13 +1251,11 @@
       <c r="D50">
         <v>0.2</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
+      <c r="E50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>5</v>
       </c>
@@ -1331,10 +1268,8 @@
       <c r="D51">
         <v>0.2</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
+      <c r="E51" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1343,41 +1278,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>sepal_length</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>sepal_width</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>petal_length</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>petal_width</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>species</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>7</v>
       </c>
@@ -1390,13 +1315,11 @@
       <c r="D2">
         <v>1.4</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>6.4</v>
       </c>
@@ -1409,13 +1332,11 @@
       <c r="D3">
         <v>1.5</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>6.9</v>
       </c>
@@ -1423,23 +1344,21 @@
         <v>3.1</v>
       </c>
       <c r="C4">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D4">
         <v>1.5</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5.5</v>
       </c>
       <c r="B5">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1447,13 +1366,11 @@
       <c r="D5">
         <v>1.3</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6.5</v>
       </c>
@@ -1461,18 +1378,16 @@
         <v>2.8</v>
       </c>
       <c r="C6">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D6">
         <v>1.5</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5.7</v>
       </c>
@@ -1485,13 +1400,11 @@
       <c r="D7">
         <v>1.3</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6.3</v>
       </c>
@@ -1504,15 +1417,13 @@
       <c r="D8">
         <v>1.6</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B9">
         <v>2.4</v>
@@ -1523,13 +1434,11 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6.6</v>
       </c>
@@ -1537,18 +1446,16 @@
         <v>2.9</v>
       </c>
       <c r="C10">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D10">
         <v>1.3</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5.2</v>
       </c>
@@ -1561,13 +1468,11 @@
       <c r="D11">
         <v>1.4</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1580,13 +1485,11 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5.9</v>
       </c>
@@ -1599,18 +1502,16 @@
       <c r="D13">
         <v>1.5</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>6</v>
       </c>
       <c r="B14">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -1618,13 +1519,11 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6.1</v>
       </c>
@@ -1637,13 +1536,11 @@
       <c r="D15">
         <v>1.4</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5.6</v>
       </c>
@@ -1656,13 +1553,11 @@
       <c r="D16">
         <v>1.3</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>6.7</v>
       </c>
@@ -1670,18 +1565,16 @@
         <v>3.1</v>
       </c>
       <c r="C17">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D17">
         <v>1.4</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5.6</v>
       </c>
@@ -1694,13 +1587,11 @@
       <c r="D18">
         <v>1.5</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5.8</v>
       </c>
@@ -1708,23 +1599,21 @@
         <v>2.7</v>
       </c>
       <c r="C19">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>6.2</v>
       </c>
       <c r="B20">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C20">
         <v>4.5</v>
@@ -1732,13 +1621,11 @@
       <c r="D20">
         <v>1.5</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>5.6</v>
       </c>
@@ -1749,15 +1636,13 @@
         <v>3.9</v>
       </c>
       <c r="D21">
-        <v>1.1</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>5.9</v>
       </c>
@@ -1770,13 +1655,11 @@
       <c r="D22">
         <v>1.8</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>6.1</v>
       </c>
@@ -1789,13 +1672,11 @@
       <c r="D23">
         <v>1.3</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>6.3</v>
       </c>
@@ -1803,18 +1684,16 @@
         <v>2.5</v>
       </c>
       <c r="C24">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D24">
         <v>1.5</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>6.1</v>
       </c>
@@ -1827,13 +1706,11 @@
       <c r="D25">
         <v>1.2</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>6.4</v>
       </c>
@@ -1846,13 +1723,11 @@
       <c r="D26">
         <v>1.3</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>6.6</v>
       </c>
@@ -1860,18 +1735,16 @@
         <v>3</v>
       </c>
       <c r="C27">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D27">
         <v>1.4</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>6.8</v>
       </c>
@@ -1884,13 +1757,11 @@
       <c r="D28">
         <v>1.4</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>6.7</v>
       </c>
@@ -1903,13 +1774,11 @@
       <c r="D29">
         <v>1.7</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>6</v>
       </c>
@@ -1922,13 +1791,11 @@
       <c r="D30">
         <v>1.5</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>5.7</v>
       </c>
@@ -1941,13 +1808,11 @@
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>5.5</v>
       </c>
@@ -1958,15 +1823,13 @@
         <v>3.8</v>
       </c>
       <c r="D32">
-        <v>1.1</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>5.5</v>
       </c>
@@ -1979,13 +1842,11 @@
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>5.8</v>
       </c>
@@ -1998,13 +1859,11 @@
       <c r="D34">
         <v>1.2</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>6</v>
       </c>
@@ -2012,18 +1871,16 @@
         <v>2.7</v>
       </c>
       <c r="C35">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D35">
         <v>1.6</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>5.4</v>
       </c>
@@ -2036,13 +1893,11 @@
       <c r="D36">
         <v>1.5</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>6</v>
       </c>
@@ -2055,13 +1910,11 @@
       <c r="D37">
         <v>1.6</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>6.7</v>
       </c>
@@ -2074,32 +1927,28 @@
       <c r="D38">
         <v>1.5</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>6.3</v>
       </c>
       <c r="B39">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C39">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D39">
         <v>1.3</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>5.6</v>
       </c>
@@ -2107,18 +1956,16 @@
         <v>3</v>
       </c>
       <c r="C40">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D40">
         <v>1.3</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>5.5</v>
       </c>
@@ -2131,13 +1978,11 @@
       <c r="D41">
         <v>1.3</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5.5</v>
       </c>
@@ -2145,18 +1990,16 @@
         <v>2.6</v>
       </c>
       <c r="C42">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D42">
         <v>1.2</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>6.1</v>
       </c>
@@ -2164,18 +2007,16 @@
         <v>3</v>
       </c>
       <c r="C43">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D43">
         <v>1.4</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>5.8</v>
       </c>
@@ -2188,18 +2029,16 @@
       <c r="D44">
         <v>1.2</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>5</v>
       </c>
       <c r="B45">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C45">
         <v>3.3</v>
@@ -2207,13 +2046,11 @@
       <c r="D45">
         <v>1</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
+      <c r="E45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>5.6</v>
       </c>
@@ -2226,13 +2063,11 @@
       <c r="D46">
         <v>1.3</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>5.7</v>
       </c>
@@ -2245,13 +2080,11 @@
       <c r="D47">
         <v>1.2</v>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5.7</v>
       </c>
@@ -2264,13 +2097,11 @@
       <c r="D48">
         <v>1.3</v>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>6.2</v>
       </c>
@@ -2283,15 +2114,13 @@
       <c r="D49">
         <v>1.3</v>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B50">
         <v>2.5</v>
@@ -2300,15 +2129,13 @@
         <v>3</v>
       </c>
       <c r="D50">
-        <v>1.1</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>5.7</v>
       </c>
@@ -2316,15 +2143,13 @@
         <v>2.8</v>
       </c>
       <c r="C51">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D51">
         <v>1.3</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
+      <c r="E51" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2333,41 +2158,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>sepal_length</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>sepal_width</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>petal_length</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>petal_width</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>species</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>6.3</v>
       </c>
@@ -2380,13 +2195,11 @@
       <c r="D2">
         <v>2.5</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5.8</v>
       </c>
@@ -2394,18 +2207,16 @@
         <v>2.7</v>
       </c>
       <c r="C3">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D3">
         <v>1.9</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7.1</v>
       </c>
@@ -2418,13 +2229,11 @@
       <c r="D4">
         <v>2.1</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6.3</v>
       </c>
@@ -2437,13 +2246,11 @@
       <c r="D5">
         <v>1.8</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6.5</v>
       </c>
@@ -2454,15 +2261,13 @@
         <v>5.8</v>
       </c>
       <c r="D6">
-        <v>2.2</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7.6</v>
       </c>
@@ -2475,15 +2280,13 @@
       <c r="D7">
         <v>2.1</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B8">
         <v>2.5</v>
@@ -2494,13 +2297,11 @@
       <c r="D8">
         <v>1.7</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7.3</v>
       </c>
@@ -2513,13 +2314,11 @@
       <c r="D9">
         <v>1.8</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6.7</v>
       </c>
@@ -2532,13 +2331,11 @@
       <c r="D10">
         <v>1.8</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7.2</v>
       </c>
@@ -2551,13 +2348,11 @@
       <c r="D11">
         <v>2.5</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6.5</v>
       </c>
@@ -2565,18 +2360,16 @@
         <v>3.2</v>
       </c>
       <c r="C12">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>6.4</v>
       </c>
@@ -2589,13 +2382,11 @@
       <c r="D13">
         <v>1.9</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>6.8</v>
       </c>
@@ -2608,13 +2399,11 @@
       <c r="D14">
         <v>2.1</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5.7</v>
       </c>
@@ -2627,13 +2416,11 @@
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5.8</v>
       </c>
@@ -2641,18 +2428,16 @@
         <v>2.8</v>
       </c>
       <c r="C16">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D16">
         <v>2.4</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>6.4</v>
       </c>
@@ -2663,15 +2448,13 @@
         <v>5.3</v>
       </c>
       <c r="D17">
-        <v>2.3</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>6.5</v>
       </c>
@@ -2684,13 +2467,11 @@
       <c r="D18">
         <v>1.8</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>7.7</v>
       </c>
@@ -2701,15 +2482,13 @@
         <v>6.7</v>
       </c>
       <c r="D19">
-        <v>2.2</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>7.7</v>
       </c>
@@ -2720,20 +2499,18 @@
         <v>6.9</v>
       </c>
       <c r="D20">
-        <v>2.3</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>6</v>
       </c>
       <c r="B21">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -2741,13 +2518,11 @@
       <c r="D21">
         <v>1.5</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>6.9</v>
       </c>
@@ -2758,15 +2533,13 @@
         <v>5.7</v>
       </c>
       <c r="D22">
-        <v>2.3</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>5.6</v>
       </c>
@@ -2774,18 +2547,16 @@
         <v>2.8</v>
       </c>
       <c r="C23">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>7.7</v>
       </c>
@@ -2798,13 +2569,11 @@
       <c r="D24">
         <v>2</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>6.3</v>
       </c>
@@ -2812,18 +2581,16 @@
         <v>2.7</v>
       </c>
       <c r="C25">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D25">
         <v>1.8</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>6.7</v>
       </c>
@@ -2836,13 +2603,11 @@
       <c r="D26">
         <v>2.1</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>7.2</v>
       </c>
@@ -2855,13 +2620,11 @@
       <c r="D27">
         <v>1.8</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>6.2</v>
       </c>
@@ -2874,13 +2637,11 @@
       <c r="D28">
         <v>1.8</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>6.1</v>
       </c>
@@ -2888,18 +2649,16 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D29">
         <v>1.8</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>6.4</v>
       </c>
@@ -2912,13 +2671,11 @@
       <c r="D30">
         <v>2.1</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>7.2</v>
       </c>
@@ -2931,13 +2688,11 @@
       <c r="D31">
         <v>1.6</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>7.4</v>
       </c>
@@ -2950,13 +2705,11 @@
       <c r="D32">
         <v>1.9</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>7.9</v>
       </c>
@@ -2969,13 +2722,11 @@
       <c r="D33">
         <v>2</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>6.4</v>
       </c>
@@ -2986,15 +2737,13 @@
         <v>5.6</v>
       </c>
       <c r="D34">
-        <v>2.2</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>6.3</v>
       </c>
@@ -3002,18 +2751,16 @@
         <v>2.8</v>
       </c>
       <c r="C35">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D35">
         <v>1.5</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>6.1</v>
       </c>
@@ -3026,13 +2773,11 @@
       <c r="D36">
         <v>1.4</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>7.7</v>
       </c>
@@ -3043,15 +2788,13 @@
         <v>6.1</v>
       </c>
       <c r="D37">
-        <v>2.3</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>6.3</v>
       </c>
@@ -3064,13 +2807,11 @@
       <c r="D38">
         <v>2.4</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>6.4</v>
       </c>
@@ -3083,13 +2824,11 @@
       <c r="D39">
         <v>1.8</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>6</v>
       </c>
@@ -3102,13 +2841,11 @@
       <c r="D40">
         <v>1.8</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>6.9</v>
       </c>
@@ -3121,13 +2858,11 @@
       <c r="D41">
         <v>2.1</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>6.7</v>
       </c>
@@ -3140,13 +2875,11 @@
       <c r="D42">
         <v>2.4</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>6.9</v>
       </c>
@@ -3154,18 +2887,16 @@
         <v>3.1</v>
       </c>
       <c r="C43">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D43">
-        <v>2.3</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>5.8</v>
       </c>
@@ -3173,18 +2904,16 @@
         <v>2.7</v>
       </c>
       <c r="C44">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D44">
         <v>1.9</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>6.8</v>
       </c>
@@ -3195,15 +2924,13 @@
         <v>5.9</v>
       </c>
       <c r="D45">
-        <v>2.3</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>6.7</v>
       </c>
@@ -3216,13 +2943,11 @@
       <c r="D46">
         <v>2.5</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>6.7</v>
       </c>
@@ -3233,15 +2958,13 @@
         <v>5.2</v>
       </c>
       <c r="D47">
-        <v>2.3</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>6.3</v>
       </c>
@@ -3254,13 +2977,11 @@
       <c r="D48">
         <v>1.9</v>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>6.5</v>
       </c>
@@ -3273,13 +2994,11 @@
       <c r="D49">
         <v>2</v>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>6.2</v>
       </c>
@@ -3290,15 +3009,13 @@
         <v>5.4</v>
       </c>
       <c r="D50">
-        <v>2.3</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>5.9</v>
       </c>
@@ -3306,15 +3023,13 @@
         <v>3</v>
       </c>
       <c r="C51">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D51">
         <v>1.8</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
+      <c r="E51" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3323,43 +3038,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>sepal_length</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>sepal_width</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>petal_length</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>petal_width</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>species</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B2">
         <v>3.5</v>
@@ -3370,15 +3075,13 @@
       <c r="D2">
         <v>0.2</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -3389,13 +3092,11 @@
       <c r="D3">
         <v>0.2</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4.7</v>
       </c>
@@ -3408,15 +3109,13 @@
       <c r="D4">
         <v>0.2</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B5">
         <v>3.1</v>
@@ -3427,13 +3126,11 @@
       <c r="D5">
         <v>0.2</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3446,13 +3143,11 @@
       <c r="D6">
         <v>0.2</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5.4</v>
       </c>
@@ -3465,15 +3160,13 @@
       <c r="D7">
         <v>0.4</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B8">
         <v>3.4</v>
@@ -3484,13 +3177,11 @@
       <c r="D8">
         <v>0.3</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -3503,15 +3194,13 @@
       <c r="D9">
         <v>0.2</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B10">
         <v>2.9</v>
@@ -3522,15 +3211,13 @@
       <c r="D10">
         <v>0.2</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B11">
         <v>3.1</v>
@@ -3541,13 +3228,11 @@
       <c r="D11">
         <v>0.1</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5.4</v>
       </c>
@@ -3560,13 +3245,11 @@
       <c r="D12">
         <v>0.2</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4.8</v>
       </c>
@@ -3579,13 +3262,11 @@
       <c r="D13">
         <v>0.2</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4.8</v>
       </c>
@@ -3598,13 +3279,11 @@
       <c r="D14">
         <v>0.1</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4.3</v>
       </c>
@@ -3612,18 +3291,16 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D15">
         <v>0.1</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5.8</v>
       </c>
@@ -3636,18 +3313,16 @@
       <c r="D16">
         <v>0.2</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5.7</v>
       </c>
       <c r="B17">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C17">
         <v>1.5</v>
@@ -3655,13 +3330,11 @@
       <c r="D17">
         <v>0.4</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5.4</v>
       </c>
@@ -3674,15 +3347,13 @@
       <c r="D18">
         <v>0.4</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B19">
         <v>3.5</v>
@@ -3693,13 +3364,11 @@
       <c r="D19">
         <v>0.3</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5.7</v>
       </c>
@@ -3712,15 +3381,13 @@
       <c r="D20">
         <v>0.3</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B21">
         <v>3.8</v>
@@ -3731,13 +3398,11 @@
       <c r="D21">
         <v>0.3</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>5.4</v>
       </c>
@@ -3750,15 +3415,13 @@
       <c r="D22">
         <v>0.2</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B23">
         <v>3.7</v>
@@ -3769,15 +3432,13 @@
       <c r="D23">
         <v>0.4</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B24">
         <v>3.6</v>
@@ -3788,15 +3449,13 @@
       <c r="D24">
         <v>0.2</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B25">
         <v>3.3</v>
@@ -3807,13 +3466,11 @@
       <c r="D25">
         <v>0.5</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>4.8</v>
       </c>
@@ -3826,13 +3483,11 @@
       <c r="D26">
         <v>0.2</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>5</v>
       </c>
@@ -3845,13 +3500,11 @@
       <c r="D27">
         <v>0.2</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5</v>
       </c>
@@ -3864,13 +3517,11 @@
       <c r="D28">
         <v>0.4</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>5.2</v>
       </c>
@@ -3883,13 +3534,11 @@
       <c r="D29">
         <v>0.2</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5.2</v>
       </c>
@@ -3902,13 +3551,11 @@
       <c r="D30">
         <v>0.2</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4.7</v>
       </c>
@@ -3921,13 +3568,11 @@
       <c r="D31">
         <v>0.2</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
+      <c r="E31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4.8</v>
       </c>
@@ -3940,13 +3585,11 @@
       <c r="D32">
         <v>0.2</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>5.4</v>
       </c>
@@ -3959,18 +3602,16 @@
       <c r="D33">
         <v>0.4</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
+      <c r="E33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>5.2</v>
       </c>
       <c r="B34">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C34">
         <v>1.5</v>
@@ -3978,13 +3619,11 @@
       <c r="D34">
         <v>0.1</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
+      <c r="E34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>5.5</v>
       </c>
@@ -3997,15 +3636,13 @@
       <c r="D35">
         <v>0.2</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
+      <c r="E35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B36">
         <v>3.1</v>
@@ -4016,13 +3653,11 @@
       <c r="D36">
         <v>0.2</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
+      <c r="E36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>5</v>
       </c>
@@ -4035,13 +3670,11 @@
       <c r="D37">
         <v>0.2</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
+      <c r="E37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>5.5</v>
       </c>
@@ -4054,15 +3687,13 @@
       <c r="D38">
         <v>0.2</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
+      <c r="E38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B39">
         <v>3.6</v>
@@ -4073,15 +3704,13 @@
       <c r="D39">
         <v>0.1</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
+      <c r="E39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -4092,15 +3721,13 @@
       <c r="D40">
         <v>0.2</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
+      <c r="E40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B41">
         <v>3.4</v>
@@ -4111,13 +3738,11 @@
       <c r="D41">
         <v>0.2</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
+      <c r="E41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5</v>
       </c>
@@ -4130,18 +3755,16 @@
       <c r="D42">
         <v>0.3</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
+      <c r="E42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>4.5</v>
       </c>
       <c r="B43">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C43">
         <v>1.3</v>
@@ -4149,15 +3772,13 @@
       <c r="D43">
         <v>0.3</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
+      <c r="E43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B44">
         <v>3.2</v>
@@ -4168,13 +3789,11 @@
       <c r="D44">
         <v>0.2</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
+      <c r="E44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>5</v>
       </c>
@@ -4187,15 +3806,13 @@
       <c r="D45">
         <v>0.6</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
+      <c r="E45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B46">
         <v>3.8</v>
@@ -4206,13 +3823,11 @@
       <c r="D46">
         <v>0.4</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
+      <c r="E46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4.8</v>
       </c>
@@ -4225,15 +3840,13 @@
       <c r="D47">
         <v>0.3</v>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
+      <c r="E47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B48">
         <v>3.8</v>
@@ -4244,15 +3857,13 @@
       <c r="D48">
         <v>0.2</v>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
+      <c r="E48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B49">
         <v>3.2</v>
@@ -4263,13 +3874,11 @@
       <c r="D49">
         <v>0.2</v>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
+      <c r="E49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>5.3</v>
       </c>
@@ -4282,13 +3891,11 @@
       <c r="D50">
         <v>0.2</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
+      <c r="E50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>5</v>
       </c>
@@ -4301,13 +3908,11 @@
       <c r="D51">
         <v>0.2</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>setosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
+      <c r="E51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>7</v>
       </c>
@@ -4320,13 +3925,11 @@
       <c r="D52">
         <v>1.4</v>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>6.4</v>
       </c>
@@ -4339,13 +3942,11 @@
       <c r="D53">
         <v>1.5</v>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
+      <c r="E53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>6.9</v>
       </c>
@@ -4353,23 +3954,21 @@
         <v>3.1</v>
       </c>
       <c r="C54">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D54">
         <v>1.5</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>5.5</v>
       </c>
       <c r="B55">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -4377,13 +3976,11 @@
       <c r="D55">
         <v>1.3</v>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>6.5</v>
       </c>
@@ -4391,18 +3988,16 @@
         <v>2.8</v>
       </c>
       <c r="C56">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D56">
         <v>1.5</v>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>5.7</v>
       </c>
@@ -4415,13 +4010,11 @@
       <c r="D57">
         <v>1.3</v>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
+      <c r="E57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>6.3</v>
       </c>
@@ -4434,15 +4027,13 @@
       <c r="D58">
         <v>1.6</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
+      <c r="E58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B59">
         <v>2.4</v>
@@ -4453,13 +4044,11 @@
       <c r="D59">
         <v>1</v>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
+      <c r="E59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>6.6</v>
       </c>
@@ -4467,18 +4056,16 @@
         <v>2.9</v>
       </c>
       <c r="C60">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D60">
         <v>1.3</v>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
+      <c r="E60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>5.2</v>
       </c>
@@ -4491,13 +4078,11 @@
       <c r="D61">
         <v>1.4</v>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
+      <c r="E61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>5</v>
       </c>
@@ -4510,13 +4095,11 @@
       <c r="D62">
         <v>1</v>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
+      <c r="E62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>5.9</v>
       </c>
@@ -4529,18 +4112,16 @@
       <c r="D63">
         <v>1.5</v>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
+      <c r="E63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>6</v>
       </c>
       <c r="B64">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -4548,13 +4129,11 @@
       <c r="D64">
         <v>1</v>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
+      <c r="E64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>6.1</v>
       </c>
@@ -4567,13 +4146,11 @@
       <c r="D65">
         <v>1.4</v>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
+      <c r="E65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>5.6</v>
       </c>
@@ -4586,13 +4163,11 @@
       <c r="D66">
         <v>1.3</v>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
+      <c r="E66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>6.7</v>
       </c>
@@ -4600,18 +4175,16 @@
         <v>3.1</v>
       </c>
       <c r="C67">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D67">
         <v>1.4</v>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
+      <c r="E67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>5.6</v>
       </c>
@@ -4624,13 +4197,11 @@
       <c r="D68">
         <v>1.5</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
+      <c r="E68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>5.8</v>
       </c>
@@ -4638,23 +4209,21 @@
         <v>2.7</v>
       </c>
       <c r="C69">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
+      <c r="E69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>6.2</v>
       </c>
       <c r="B70">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C70">
         <v>4.5</v>
@@ -4662,13 +4231,11 @@
       <c r="D70">
         <v>1.5</v>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
+      <c r="E70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>5.6</v>
       </c>
@@ -4679,15 +4246,13 @@
         <v>3.9</v>
       </c>
       <c r="D71">
-        <v>1.1</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>5.9</v>
       </c>
@@ -4700,13 +4265,11 @@
       <c r="D72">
         <v>1.8</v>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
+      <c r="E72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>6.1</v>
       </c>
@@ -4719,13 +4282,11 @@
       <c r="D73">
         <v>1.3</v>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
+      <c r="E73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>6.3</v>
       </c>
@@ -4733,18 +4294,16 @@
         <v>2.5</v>
       </c>
       <c r="C74">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D74">
         <v>1.5</v>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
+      <c r="E74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>6.1</v>
       </c>
@@ -4757,13 +4316,11 @@
       <c r="D75">
         <v>1.2</v>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
+      <c r="E75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>6.4</v>
       </c>
@@ -4776,13 +4333,11 @@
       <c r="D76">
         <v>1.3</v>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
+      <c r="E76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>6.6</v>
       </c>
@@ -4790,18 +4345,16 @@
         <v>3</v>
       </c>
       <c r="C77">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D77">
         <v>1.4</v>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
+      <c r="E77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>6.8</v>
       </c>
@@ -4814,13 +4367,11 @@
       <c r="D78">
         <v>1.4</v>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
+      <c r="E78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>6.7</v>
       </c>
@@ -4833,13 +4384,11 @@
       <c r="D79">
         <v>1.7</v>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
+      <c r="E79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>6</v>
       </c>
@@ -4852,13 +4401,11 @@
       <c r="D80">
         <v>1.5</v>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
+      <c r="E80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>5.7</v>
       </c>
@@ -4871,13 +4418,11 @@
       <c r="D81">
         <v>1</v>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
+      <c r="E81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>5.5</v>
       </c>
@@ -4888,15 +4433,13 @@
         <v>3.8</v>
       </c>
       <c r="D82">
-        <v>1.1</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>5.5</v>
       </c>
@@ -4909,13 +4452,11 @@
       <c r="D83">
         <v>1</v>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
+      <c r="E83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>5.8</v>
       </c>
@@ -4928,13 +4469,11 @@
       <c r="D84">
         <v>1.2</v>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
+      <c r="E84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>6</v>
       </c>
@@ -4942,18 +4481,16 @@
         <v>2.7</v>
       </c>
       <c r="C85">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D85">
         <v>1.6</v>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
+      <c r="E85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>5.4</v>
       </c>
@@ -4966,13 +4503,11 @@
       <c r="D86">
         <v>1.5</v>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
+      <c r="E86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>6</v>
       </c>
@@ -4985,13 +4520,11 @@
       <c r="D87">
         <v>1.6</v>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
+      <c r="E87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>6.7</v>
       </c>
@@ -5004,32 +4537,28 @@
       <c r="D88">
         <v>1.5</v>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
+      <c r="E88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>6.3</v>
       </c>
       <c r="B89">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C89">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D89">
         <v>1.3</v>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
+      <c r="E89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>5.6</v>
       </c>
@@ -5037,18 +4566,16 @@
         <v>3</v>
       </c>
       <c r="C90">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D90">
         <v>1.3</v>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
+      <c r="E90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>5.5</v>
       </c>
@@ -5061,13 +4588,11 @@
       <c r="D91">
         <v>1.3</v>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
+      <c r="E91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>5.5</v>
       </c>
@@ -5075,18 +4600,16 @@
         <v>2.6</v>
       </c>
       <c r="C92">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D92">
         <v>1.2</v>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
+      <c r="E92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>6.1</v>
       </c>
@@ -5094,18 +4617,16 @@
         <v>3</v>
       </c>
       <c r="C93">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D93">
         <v>1.4</v>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
+      <c r="E93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>5.8</v>
       </c>
@@ -5118,18 +4639,16 @@
       <c r="D94">
         <v>1.2</v>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
+      <c r="E94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>5</v>
       </c>
       <c r="B95">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C95">
         <v>3.3</v>
@@ -5137,13 +4656,11 @@
       <c r="D95">
         <v>1</v>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
+      <c r="E95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>5.6</v>
       </c>
@@ -5156,13 +4673,11 @@
       <c r="D96">
         <v>1.3</v>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
+      <c r="E96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>5.7</v>
       </c>
@@ -5175,13 +4690,11 @@
       <c r="D97">
         <v>1.2</v>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
+      <c r="E97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>5.7</v>
       </c>
@@ -5194,13 +4707,11 @@
       <c r="D98">
         <v>1.3</v>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
+      <c r="E98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>6.2</v>
       </c>
@@ -5213,15 +4724,13 @@
       <c r="D99">
         <v>1.3</v>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
+      <c r="E99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B100">
         <v>2.5</v>
@@ -5230,15 +4739,13 @@
         <v>3</v>
       </c>
       <c r="D100">
-        <v>1.1</v>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>5.7</v>
       </c>
@@ -5246,18 +4753,16 @@
         <v>2.8</v>
       </c>
       <c r="C101">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D101">
         <v>1.3</v>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>versicolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
+      <c r="E101" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>6.3</v>
       </c>
@@ -5270,13 +4775,11 @@
       <c r="D102">
         <v>2.5</v>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
+      <c r="E102" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>5.8</v>
       </c>
@@ -5284,18 +4787,16 @@
         <v>2.7</v>
       </c>
       <c r="C103">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D103">
         <v>1.9</v>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
+      <c r="E103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>7.1</v>
       </c>
@@ -5308,13 +4809,11 @@
       <c r="D104">
         <v>2.1</v>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
+      <c r="E104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>6.3</v>
       </c>
@@ -5327,13 +4826,11 @@
       <c r="D105">
         <v>1.8</v>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
+      <c r="E105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>6.5</v>
       </c>
@@ -5344,15 +4841,13 @@
         <v>5.8</v>
       </c>
       <c r="D106">
-        <v>2.2</v>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>7.6</v>
       </c>
@@ -5365,15 +4860,13 @@
       <c r="D107">
         <v>2.1</v>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
+      <c r="E107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B108">
         <v>2.5</v>
@@ -5384,13 +4877,11 @@
       <c r="D108">
         <v>1.7</v>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
+      <c r="E108" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>7.3</v>
       </c>
@@ -5403,13 +4894,11 @@
       <c r="D109">
         <v>1.8</v>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
+      <c r="E109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>6.7</v>
       </c>
@@ -5422,13 +4911,11 @@
       <c r="D110">
         <v>1.8</v>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
+      <c r="E110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>7.2</v>
       </c>
@@ -5441,13 +4928,11 @@
       <c r="D111">
         <v>2.5</v>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
+      <c r="E111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>6.5</v>
       </c>
@@ -5455,18 +4940,16 @@
         <v>3.2</v>
       </c>
       <c r="C112">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D112">
         <v>2</v>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
+      <c r="E112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>6.4</v>
       </c>
@@ -5479,13 +4962,11 @@
       <c r="D113">
         <v>1.9</v>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
+      <c r="E113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>6.8</v>
       </c>
@@ -5498,13 +4979,11 @@
       <c r="D114">
         <v>2.1</v>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
+      <c r="E114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>5.7</v>
       </c>
@@ -5517,13 +4996,11 @@
       <c r="D115">
         <v>2</v>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
+      <c r="E115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>5.8</v>
       </c>
@@ -5531,18 +5008,16 @@
         <v>2.8</v>
       </c>
       <c r="C116">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D116">
         <v>2.4</v>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
+      <c r="E116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>6.4</v>
       </c>
@@ -5553,15 +5028,13 @@
         <v>5.3</v>
       </c>
       <c r="D117">
-        <v>2.3</v>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>6.5</v>
       </c>
@@ -5574,13 +5047,11 @@
       <c r="D118">
         <v>1.8</v>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
+      <c r="E118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>7.7</v>
       </c>
@@ -5591,15 +5062,13 @@
         <v>6.7</v>
       </c>
       <c r="D119">
-        <v>2.2</v>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>7.7</v>
       </c>
@@ -5610,20 +5079,18 @@
         <v>6.9</v>
       </c>
       <c r="D120">
-        <v>2.3</v>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E120" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>6</v>
       </c>
       <c r="B121">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C121">
         <v>5</v>
@@ -5631,13 +5098,11 @@
       <c r="D121">
         <v>1.5</v>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
+      <c r="E121" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>6.9</v>
       </c>
@@ -5648,15 +5113,13 @@
         <v>5.7</v>
       </c>
       <c r="D122">
-        <v>2.3</v>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E122" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>5.6</v>
       </c>
@@ -5664,18 +5127,16 @@
         <v>2.8</v>
       </c>
       <c r="C123">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D123">
         <v>2</v>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
+      <c r="E123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>7.7</v>
       </c>
@@ -5688,13 +5149,11 @@
       <c r="D124">
         <v>2</v>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
+      <c r="E124" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>6.3</v>
       </c>
@@ -5702,18 +5161,16 @@
         <v>2.7</v>
       </c>
       <c r="C125">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D125">
         <v>1.8</v>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
+      <c r="E125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>6.7</v>
       </c>
@@ -5726,13 +5183,11 @@
       <c r="D126">
         <v>2.1</v>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
+      <c r="E126" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>7.2</v>
       </c>
@@ -5745,13 +5200,11 @@
       <c r="D127">
         <v>1.8</v>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
+      <c r="E127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>6.2</v>
       </c>
@@ -5764,13 +5217,11 @@
       <c r="D128">
         <v>1.8</v>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
+      <c r="E128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>6.1</v>
       </c>
@@ -5778,18 +5229,16 @@
         <v>3</v>
       </c>
       <c r="C129">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D129">
         <v>1.8</v>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
+      <c r="E129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>6.4</v>
       </c>
@@ -5802,13 +5251,11 @@
       <c r="D130">
         <v>2.1</v>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
+      <c r="E130" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>7.2</v>
       </c>
@@ -5821,13 +5268,11 @@
       <c r="D131">
         <v>1.6</v>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
+      <c r="E131" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>7.4</v>
       </c>
@@ -5840,13 +5285,11 @@
       <c r="D132">
         <v>1.9</v>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
+      <c r="E132" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>7.9</v>
       </c>
@@ -5859,13 +5302,11 @@
       <c r="D133">
         <v>2</v>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
+      <c r="E133" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>6.4</v>
       </c>
@@ -5876,15 +5317,13 @@
         <v>5.6</v>
       </c>
       <c r="D134">
-        <v>2.2</v>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E134" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>6.3</v>
       </c>
@@ -5892,18 +5331,16 @@
         <v>2.8</v>
       </c>
       <c r="C135">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D135">
         <v>1.5</v>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
+      <c r="E135" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>6.1</v>
       </c>
@@ -5916,13 +5353,11 @@
       <c r="D136">
         <v>1.4</v>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
+      <c r="E136" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>7.7</v>
       </c>
@@ -5933,15 +5368,13 @@
         <v>6.1</v>
       </c>
       <c r="D137">
-        <v>2.3</v>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E137" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>6.3</v>
       </c>
@@ -5954,13 +5387,11 @@
       <c r="D138">
         <v>2.4</v>
       </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
+      <c r="E138" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>6.4</v>
       </c>
@@ -5973,13 +5404,11 @@
       <c r="D139">
         <v>1.8</v>
       </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
+      <c r="E139" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>6</v>
       </c>
@@ -5992,13 +5421,11 @@
       <c r="D140">
         <v>1.8</v>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
+      <c r="E140" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>6.9</v>
       </c>
@@ -6011,13 +5438,11 @@
       <c r="D141">
         <v>2.1</v>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
+      <c r="E141" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>6.7</v>
       </c>
@@ -6030,13 +5455,11 @@
       <c r="D142">
         <v>2.4</v>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
+      <c r="E142" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>6.9</v>
       </c>
@@ -6044,18 +5467,16 @@
         <v>3.1</v>
       </c>
       <c r="C143">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D143">
-        <v>2.3</v>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E143" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>5.8</v>
       </c>
@@ -6063,18 +5484,16 @@
         <v>2.7</v>
       </c>
       <c r="C144">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D144">
         <v>1.9</v>
       </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
+      <c r="E144" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>6.8</v>
       </c>
@@ -6085,15 +5504,13 @@
         <v>5.9</v>
       </c>
       <c r="D145">
-        <v>2.3</v>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E145" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>6.7</v>
       </c>
@@ -6106,13 +5523,11 @@
       <c r="D146">
         <v>2.5</v>
       </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
+      <c r="E146" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>6.7</v>
       </c>
@@ -6123,15 +5538,13 @@
         <v>5.2</v>
       </c>
       <c r="D147">
-        <v>2.3</v>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E147" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>6.3</v>
       </c>
@@ -6144,13 +5557,11 @@
       <c r="D148">
         <v>1.9</v>
       </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
+      <c r="E148" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>6.5</v>
       </c>
@@ -6163,13 +5574,11 @@
       <c r="D149">
         <v>2</v>
       </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
+      <c r="E149" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>6.2</v>
       </c>
@@ -6180,15 +5589,13 @@
         <v>5.4</v>
       </c>
       <c r="D150">
-        <v>2.3</v>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E150" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>5.9</v>
       </c>
@@ -6196,15 +5603,13 @@
         <v>3</v>
       </c>
       <c r="C151">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D151">
         <v>1.8</v>
       </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>virginica</t>
-        </is>
+      <c r="E151" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
